--- a/500all/speech_level/speeches_CHRG-114hhrg20217.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>412658</t>
   </si>
   <si>
-    <t>Barbara Comstock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Comstock. Thank you, Mr. Chairman. I ask unanimous consent to offer an extended opening statement for the record.    But first of all, last Friday, when the Metro's general manager, Paul Wiedefeld, who is with us today, terminated 20 managers, 7 of whom were considered senior, I think we all hoped that this is just the beginning of a new era of accountability and transparency at Metro, and I know our Washington delegation all voiced support for you in this action, as well as a number of your recent actions. We need to find new ways to run this rail.    I join Congressman Delaney on changing the board structure and legislation on that front, and we are pleased to see new board members are focused on being experienced board members with transportation and management experience.    On cost issues, according to FTA and DOT [Department of Transportation] data, Metrorail's costs run 120 percent to 150 percent higher than comparable transit systems. That is why I appreciate that Mr. Wiedefeld said at a recent Loudoun County event that he attended with me that he is not asking for more money at this time, but is very much focused on addressing these issues and how we can restructure Metro and how we can address some of these issues on labor negotiations that are coming up, and how we can find ways to do better.    I am concerned that there is a clause in the current labor agreement which states--and I quote--``The authority shall not contract out or subcontract any work normally performed by the employees within the bargaining unit defined in this agreement which would result in a layoff, transfer, or demotion of these employees.'' Does this prevent Metro from having the kind of flexibility to realize the cost savings of contracting out track work and having the best people at the best price do this work? I know I have talked with the new general manager and FTA about these issues.    I have also met with businesses who are doing track work who tell us they can do this at lower costs than we are currently paying, and our current costs seem to run well ahead of Davis-Bacon costs.    I also want to see how we are using new technologies that can document the track work being done, technologies that can save money and increase safety and transparency, and are already being used at other rail systems around the country. I hope we can explore that more. And since I am chairman of the Subcommittee on Research and Technology of the Committee on Science, Space, and Technology, we are going to be looking into having hearings on that. So anywhere we can assist you on that, we want to find the best, most cost-efficient systems that save our taxpayers money.    Finally, I want to address the disturbing report we saw in the news last night about a rape that occurred last month on Metro in broad daylight, 10 o'clock in the morning. Clearly, we also have--and I hear this from people all the time--the concerns about basic personal safety. I have had people approach me at my own stations having personal safety issues, and this is something that is, obviously, unacceptable, but also a concern, that this wasn't immediately made known, when this report was made, and how are we doing all of these things. Because I appreciate we have talked about this new era of transparency, as well as the culture of safety that we all need and finding, you know, better ways to save money.    But I do appreciate that you have talked about putting more people on the front lines in the stations, and I think this very troubling incident is one of the many reasons we have to have more people out of the back office and on the front lines, protecting our customers and our constituents.    Again I thank the chairman and our witnesses today. I thank the chairman very much for this important hearing, and for his hard work on this effort. And I look forward to hearing from our witnesses today. Thank you.    Mr. Graves of Missouri. Thank you very much. I now turn to Ranking Member Norton for her opening statement.</t>
   </si>
   <si>
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman. I have to begin by saying how much I appreciate this hearing. I think the fact that we are having this hearing today points to how important WMATA is, of course, to its immediate region, but also to the Federal Government itself. We are locked into this together, and into WMATA's problems together, and unwinding them together.    I stress WMATA's uniqueness. No other Metro system across the United States has to respond to three different jurisdictions. That is a built-in structural problem that neither WMATA nor, for that matter, those of us in the Federal Government have been able to help WMATA somehow get over. This is one of the reasons for WMATA's complexities. And those complexities play prominently into the changes that are needed.    For example, just this morning Secretary Foxx announced that he was appointing a high-level official from his office to help hasten the work of the three jurisdictions in setting up their own safety oversight mechanism. The new CEO, Mr. Wiedefeld, has taken steps that have been acknowledged as bold and necessary--despite inconveniencing the public.    But here we have dual issues that collide. We want the public to be safe, and we want the public to be able to get where they are going quickly. And how WMATA solves that during this process when they are overhauling the system, is one of the issues we want to face today. The basic challenge WMATA will meet after this single year of essentially rebuilding much of the system is how to keep it that way. And I will want to hear more this morning about that.    The word ``safety culture'' is thrown around. What does that mean? It is a really scary word, because it means that something is embedded in how the WMATA operates that somehow has to be dug out. And the culture notion has not been defined.    Congress, of course, passed MAP-21 [Moving Ahead for Progress in the 21st Century Act], giving the Federal Transit Administration safety oversight over public transportation in the United States, and we reinforced that in the FAST [Fixing America's Surface Transportation] Act. Now WMATA safety issues pile onto FTA that it would like to offload. And I think the SafeTrack plan of the general manager will help to do that.    Some of Metro's funds are being held up because, inexcusably, on top of all of its other issues, it mishandled its finances and is therefore having trouble getting its Federal funds. That is something that has to be worked out and worked out very quickly. It looks like WMATA has taken the necessary actions, but that the Federal Transit Administration has not responded appropriately. So if WMATA does something right, we expect the Federal agency to respond in kind.    Mr. Chairman, I am very anxious to hear the testimony. I very much appreciate that the witnesses have prepared thoughtful testimony today. I think you see how much today's hearing means to the region as three Members of the region are here to testify, and I thank them for coming, as well. I yield back, sir.    Mr. Graves of Missouri. Thank you very much. I now turn to the chairman of the full committee, Bill Shuster.</t>
   </si>
   <si>
     <t>409888</t>
   </si>
   <si>
-    <t>Bill Shuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you, Mr. Chairman. I thank our witnesses being here today. With the panel we have Messrs. Hoyer, Connolly, and Delaney, and then three members of the committee, Mrs. Comstock, Ms. Norton, and Ms. Edwards, we have got the entire House delegation that represents the area, which--we can tell it is an important issue to them, but it is really an important issue to all of us.    Millions of people come to Washington, DC, every year, from around--our fellow citizens to people from around the world. And this transit system really ought to be the crown jewel of the transit systems around the country. And in fact, they get more money per capita than any other system in the country, but they also spend more money than any other system in the country. And we have got to bring those things into alignment. But this needs to be a system that is safe, safety has to be paramount.    And for over 50 years, as mentioned, the Metro system has benefitted by Federal support. So this is really important to the entire Nation, that we get this right. In addition to the monies that the Federal Government gives to the Metro system, also 40 percent of the Metro's rush-hour riders are provided--Federal employees are provided a subsidy to ride that system.    So, again, the safety of the people that we work with every day and depend on to help us operate the Government depend on this system being a safe and reliable system. But despite all that Federal investment, the safety and reliability record has deteriorated. And it is because, I believe, and from what I have talked to other folks, it has not switched its responsibility from building a system to operating and maintaining a system.    What it takes, I believe, is a cultural change at Metro, and I am pleased that the new CEO, I think, is doing just that. What--the Federal Transit Administration has temporarily taken over that authority, and Administrator Flowers is here today to talk about that. That oversight needed to be done because Metro hasn't been able to do it appropriately.    Secretary Foxx has given 1 year to the WMATA, to Virginia, Maryland, and DC to step up to the plate and do what is necessary on this, on the oversight.    And last year, Congress, we passed the FAST Act. And in that we strengthened FTA's safety oversight authority and provides the DC region with 5 years of increased funding. Again, more Federal dollars that the citizens of America are contributing to this system. As I said, this should be the crown jewel of the system and it is not, and we deserve to have that.    Again, the new CEO, Paul Wiedefeld, is here today. And his record as a manager of--making things run in the proper way, he has got the right resume for it, and I think his strong statements in just his first year really has woken folks up to the need for strong management, for a cultural change at this transit system.    So again, I welcome our--my colleagues here today, look forward to hearing from them and also from Mr. Wiedefeld and Ms. Flowers on this issue.</t>
   </si>
   <si>
@@ -82,45 +73,27 @@
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you, Mr. Chairman. Well, it is sad that we are here today under these circumstances. There are certainly management issues at WMATA, and I will get into that in a moment. But let's get to the bottom line here: Congress has neglected to make sufficient investments in infrastructure.    Everywhere in the country, cities are struggling between the pressure to build out more transit and new options--and that is certainly going on here, in what is arguably potentially the most congested traffic region in the United States of America, and then maintaining their legacy systems. And Congress hasn't been willing to be an equal partner. There is an $84 billion backlog, nationally, to bring transit up to a state of good repair.    Yes, the FAST Act is going to give us a little more money. That is good. But with the amount of money there, we are never going to get a state of good repair, never. We are just about treading water. And right now, DOT says the average annual level required to eliminate the backlog by 2030 is $18.5 billion a year. And, well, we are putting up $10 billion. Uh-oh, that doesn't sound too good, does it?    It is pretty embarrassing when in what is called the capital of the free world, the greatest country on Earth, American exceptionalism, we are killing people on a transit system with a combination of budgetary pressures and management issues.    Now, I think we are going to make real progress on the management issues, and we will hear about that later today. But what about the money? We cannot ignore the need for additional investment.    Now, when the so-called American Recovery Act passed, which I voted against because 4 percent of that 800-some billion dollars went into infrastructure investment--4 percent--cities like Chicago just pulled projects off the shelf. They had the money committed in 30 days. They could have spent 10, 20 times as much money on project sitting on the shelf, waiting to happen, that are critical for the safety and security of their riders and, obviously, the efficiency of the system.    So we cannot ignore the thousand-pound gorilla in the room. We aren't putting up the money we need to be a good partner. We only partner 50 percent, and we don't help with operations. And, you know, we are just walking away from that. So that is why we are here today.    So let's not just say this was a management issue or, oh, gee, they spend more money or, gee, they are less efficient. Yes, those are all issues. But the bottom line is this is not a unique circumstance. This, what is happening here in Washington, DC, is getting attention. But there is--that is happening in every major legacy system across the country today, and it is happening in cities that want to give their people new transit options and have to choose between running a bus with 1 billion miles on it that is breaking down every day--maybe the brakes don't work so well--and giving people those new options to get them out of congestion.    We shouldn't have to make those choices. Our country, the United States of America, can afford to do both. We can afford to partner and help them rebuild and maintain and build out the new options, but it is going to take a new attitude here in Congress.    I have offered many ways to help increase transit funding and highway funding. They have all been rejected. We weren't even allowed to vote on one single amendment when we did the FAST Act. They were not allowed. Many amendments were offered, including bipartisan amendments, that dealt with funding. Instead, we took money from the TSA [Transportation Safety Administration] to help pay for that bill, and now people are standing in line at the airports. Wow.    We are going to keep shuffling stuff around until nothing works in this country any more.    Thank you, Mr. Chairman. I look forward to the hearing.    Mr. Graves of Missouri. Thank you very much. Today we have two panels, and I want to welcome our first panel.    We have got the Honorable Steny Hoyer, who is representing the Fifth District of Maryland; the Honorable Gerry Connolly, who is representing the 11th District of Virginia; and the Honorable John Delaney, who is representing the Sixth District of Maryland.    I would ask unanimous consent that our witnesses' full statements be included in the record.    [No response.]    Mr. Graves of Missouri. And, without objection, that is so ordered.    And with that we will start with Mr. Hoyer. Thank you for being here.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Hoyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hoyer. Thank you very much, Chairman Graves and Ranking Member DeFazio. And I want to associate myself with the remarks from the gentleman from Pennsylvania, Mr. Shuster, the chairman of the committee. Clearly, this was the crown jewel. Clearly, nobody would be calling it the crown jewel today. And clearly, it must be the crown jewel for all the regions the chairman mentioned in terms of--we used to call this and still call it America's subway, because millions and millions of everybody's constituents in this room use this system.    I appreciate the opportunity to share my input with the subcommittee regarding the Washington Metropolitan Area Transit Authority and the need for robust investment and high safety standards.    The safety and reliability of the Metro is of critical importance, not only to Washington, DC, and its surrounding communities. It is also critical to the smooth functioning of the Federal Government and of our national defense and homeland security.    Both civilian and military rely on the Metro to get to their offices and to their duty stations. My district is home to 62,000 Federal employees, and many who serve in military jobs located here in regional installations. Many of them depend on Metro to get to work each day to serve the American people. Metro is also a crucial tool for the millions of Americans and foreign visitors who come to our Nation's Capital each year. That is the premise which underlines our Federal focus.    I joined the rest of the National Capital region delegation last Wednesday for a meeting with Paul Wiedefeld, Metro's new general manager, of whom many of you have spoken and spoken positively--and I think that--appropriately, as well--to discuss WMATA's new SafeTrack plan, which aims to address maintenance and rehabilitation efforts to improve safety. However, we spoke on a more broad basis than simply the SafeTrack program.    The recent incidents of fire and the daylong shutdown for diagnostic inspections have brought to light a number of very critical repairs that must be done to ensure that riders are always safe when using the Metro system. In some ways, these problems are the result of past failures to invest adequately in long-term maintenance and upgrades.    As the new 7000-series cars are brought into the fleet, we need to make sure that the tracks and tunnels that these new modern cars run on are up to date, as well. Metro safety and reliability is a critical concern for residents of Maryland's Fifth District, which is home to commuters served by all of Metro's lines.    I am disappointed, as I know many are, that Metro needs to implement the SafeTrack plan in the first place. But it is necessary. We shouldn't be in a situation, however, where entire lines may be shut down for maintenance, and where the predictability and reliability of train schedules has been undermined. But I am very impressed with Mr. Wiedefeld's leadership and his determination to take the steps necessary to put Metro back on course to be a system that all in our region and in our country can be proud of.    We have a ways to go before we can get to that point. But it is encouraging that WMATA's leadership is fully committed to putting passenger safety first, and is acting to improve safety in the near and in the long term.    Mr. Chairman, I hope the subcommittee and the full committee will support investments in Metro's safety and service, so that the SafeTrack plan will be as successful as possible as quickly as possible. Congress has a responsibility to make sure that the Metro system, which we call America's subway, can well serve those who serve American citizens, as well.    I want to thank Ranking Member Eleanor Holmes Norton for her untiring advocacy on behalf of Metro and all those who ride it.    And Mr. Chairman, I want to assure you and Mr. Shuster and Ms. Norton and Mr. DeFazio that the Washington metropolitan delegation is united in its determination to ensure, working with you, that America's subway is a subway system second to none. Thank you very much.    Mr. Graves of Missouri. Thank you, Congressman Hoyer.    Next is Congressman Connolly.</t>
   </si>
   <si>
-    <t>Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Chairman Graves, Chairman Shuster, Ranking Members Norton and DeFazio, thank you so much for having us here today. I am delighted to join with my colleagues, Mr. Hoyer and Mr. Delaney.    I serve as the ranking member of the Subcommittee on Government Operations of the Committee on Oversight and Government Reform, which held its own hearings on Metro in the wake of the L'Enfant Plaza tragedy. The challenges facing Metro are significant, and I welcome collaboration between our two committees to ensure robust oversight over Metro's management of Federal dollars and adherence to Federal safety standards.    I spent the last 22 years working on Metro, first as a member of the Fairfax County Board of Supervisors, where as chairman I made appointments to the Metro board and approved the local operating subsidy. For the past 8 years I have worked with you and your colleagues here on this committee to secure the $150 million annual Federal commitment for Metro safety improvements, which is matched dollar for dollar by Virginia, DC, and Maryland. No one is more disheartened than I am with the unacceptable and unsustainable state of affairs at Metro.    I want to start by commending this committee for your efforts, through MAP-21 and then the FAST Act, to create a comprehensive framework of safety standards for Metro and all of the Nation's transit systems. As the NTSB [National Transportation Safety Board] and the FTA have highlighted again and again, Metro's current local safety agency, the Tri-State Oversight Committee, is nothing more than a paper tiger without the proper resources or tools to provide effective oversight.    Our partners in Virginia, Maryland, and DC are working together to stand up a new Metro safety commission next year that will meet and enforce the new Federal standards. Until then, Secretary Foxx, acting under new authorities in the FAST Act, has appointed the FTA as the interim safety oversight agency. While I respectfully disagreed with that action, deferring instead to the NTSB's recommendation to use the FRA's [Federal Railroad Administration's] more robust safety standards, I share the committee's and Secretary's ultimate goal for addressing the shocking lack of safety culture within Metro.    To that end, I welcome an opportunity to work with you to explore further expanding the FTA's authorities to better match not only the oversight, but also the enforcement authorities under the FRA to address the NTSB's urgent safety recommendations. In fact, Metro's new general manager has indicated he is voluntarily directing his team to explore what FRA standards they can apply on their own. Regardless of what style of transit commuters are using, they deserve to know they are being protected by effective and enforceable Federal standards.    What we are witnessing today with Metro is the result of a decades-long march into mediocrity and dysfunction. Riders are now confronted with near-daily service or safety delays, including today, Mr. Chairman. And incidents of arcing or smoke in the tunnels have become all too frequent and, frankly, are scaring riders away. Recent arcing incidents led the general manager to take the unprecedented step of shuttering the entire National Capital subway system for 24 hours in March. And earlier this month, the two stations serving Capitol Hill were closed during the evening rush hour.    Mr. Wiedefeld recently released an aggressive proposal to single-track and shut down portions of Metro lines for days at a time in order to condense 3 years' worth of deferred maintenance--3 years--into 1 year. This will present significant and sustained challenges to riders in the Federal Government. Federal employees account for 40 percent of all Metro riders. So we have called on OPM [Office of Personnel Management] and all Federal agencies to push telework and flexible work schedules during this time.    Of course, Metro cannot focus only on track and infrastructure repairs. A complete systemwide change in culture is necessary. Safety and personnel actions already taken by Mr. Wiedefeld should serve as a shot across the bow that indifference to safety and customer service will no longer be tolerated.    These are not problems that can be fixed overnight. Metro and its partners face a monumental task, and the Federal Government must be a full-funding partner in this effort. And I welcome the opportunity to work with this committee to explore options for expanding our Federal commitment, to include operating subsidies. The Federal Government is the only compact member that does not pay any share of operating subsidies.    We also must incentivize the National Capital region to finally create a dedicated source of revenue for funding Metro. These are separate but equally important investments critical to Metro's future success.    Metro, Mr. Chairman, has been our single greatest regional achievement, and in many ways our single biggest disappointment. Working together we can restore America's subway to the place of prominence it once held, and setting the standard for other transit systems across the Nation, giving our riders the world-class system they so sorely deserve. Thank you.    Mr. Graves of Missouri. Thank you, Mr. Connolly.    Next is Representative John Delaney.    Thanks for being here.</t>
   </si>
   <si>
-    <t>Delaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Delaney. Thank you. I want to thank the chair and the ranking member and all of my colleagues for giving me this opportunity to discuss Metro with you today. It is, obviously, something that is very important to my constituents, many of which use this system on a daily basis. It is also important, as we know, to everyone who lives in the National Capital region, and to all the visitors of our Nation's Capital.    Clearly, Metro is an organization in crisis with significant deficiencies around safety, around reliability, around customer service, and around financial management. And if you diagnose the problems with Metro, you realize there are several causes.    The first Ranking Member Norton discussed, which is Metro effectively reports to four governing jurisdictions; DC, Maryland, Virginia, and the Federal Government. This four-headed monster makes it very difficult for Metro to get the kind of funding and oversight that would be optimal for an organization of its scale.    Secondly, as Ranking Member DeFazio talked about, by any measure Metro has been underfunded, and it has lacked a reliable source of funding, which has created greater uncertainty, and made the underfunded situation even more pronounced.    And finally, it has clearly been mismanaged, perhaps for several decades. When you look back at management decisions, whether they be strategic or tactical, that, clearly, poor decisions were made. I, like you, want to exclude the current general manager from that criticism because I, like you, share the view that he is off to a very good start and we should be very supportive of him.    But I think there is another issue that needs to be considered when you talk about what is going on with Metro, and this gets to Chairman Shuster's comments about culture, which is Metro has clearly had a deficient culture, as it relates to its priorities. And I think that raises a governance question. In other words, what is happening in terms of the board, the board of directors, in the governance and management of Metro?    As someone who spent my whole career in the private sector chairing two publicly traded companies and also being on the board of very high-performing nonprofits, I think governance really matters because a good board sets the correct mission, sets the correct strategic goals. Their most important responsibility is to recruit management, to hold them accountable; if they are not living up to the goals, make management changes; and to secure the funding that the enterprise needs.    And the way they secure the funding is by making people believe that they are actually running the place right. And I think this is a significant question with Metro. Right now, Metro has a 16-person board. Four of those members are appointed by each relevant jurisdiction. And currently, there are no standards for who those members can be.    Mr. Shuster--or the chairman, I think you said you can't legislate certain things. One thing you can't legislate is good governance. But you can do things to make sure we have the best people possible sitting around the table, making these decisions, instead of maybe just elected officials or instead of just people who were given a board spot because they raised a lot of money for their relevant elected officers.    And so, what I have tried to do is put forth--and Representative Comstock has been supportive of this with me--put forth a framework where the jurisdictions will be required, as part of their appointment process, to certify that the members that they are appointing are experts in either finance, in management, in transit, or in safety. I think this will put people with more qualifications and more experience around the board table at Metro, and I think it will encourage maybe longer term thinking, because my sense is these people will probably have more experience in board governance matters, and they won't think about their own unique interests in the particular jurisdictions they represent, but spend more time thinking about the good of the whole enterprise, which is what a real fiduciary should do.    So I think, to talk about specific things we can do to change the culture, in addition to getting more funding, in addition to supporting the new management changes, I think there are some important things we can do around governance. And I applaud Secretary Foxx, who is actually taking a step in this direction. He recently changed all of the Federal appointees to the board, and put up four people who clearly have expertise in safety, which is something we support.    But we would also like to see some people sitting around the table who have finance experience, management experience, and real transit experience, so we get some real experts thinking long term for the good of the enterprise, creating the right mission, getting the right management team in place, and holding them accountable. And I think, over time, that can change the culture of Metro.    So I appreciate the opportunity to be here with you.    Mr. Graves of Missouri. Thank you very much, all three of you. And with that I will dismiss the first panel and we will bring the second panel up. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Norton. Mr. Chairman, while the second panel is coming up, I would like to ask that the statement of Representative Chris Van Hollen, a Member who represents a jurisdiction in this region, be admitted to the record.    And I would like to ask unanimous consent to correct the record, and to have a chart that shows Federal funding for WMATA, compared to other transit agencies. WMATA receives 19 percent of its budget from Federal contributions; 17 percent is the industry average. On fares, WMATA's fares cover 32.6 percent of its budget, where the industry average is 23.3 percent. And I ask that this chart be entered into the record, as well.    [No response.]    Mr. Graves of Missouri. Without objection, so ordered.    [Mr. Van Hollen's prepared statement and the chart offered by Ms. Norton for the record follow:]    Mr. Graves of Missouri. Now I would like to take this opportunity to welcome our second panel.    We have Mr. Paul Wiedefeld, who is the general manager of the Washington Metropolitan Area Transit Authority; Ms. Carolyn Flowers, who is the Acting Administrator, Federal Transit Administration; and the Honorable Tim Lovain, Chair of the National Capital Region Transportation Planning Board of the Metropolitan Washington Council of Governments.    And with that I would ask unanimous consent that our witnesses' full statements be included in the record.    [No response.]    Mr. Graves of Missouri. And without objection, that is so ordered. And since the written statements are going to be included in the record, I would request you try to limit your comments to 5 minutes.    And with that, Mr. Wiedefeld, we will start with you.</t>
   </si>
   <si>
-    <t>Wiedefeld</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wiedefeld. Good morning, Chairman Graves and Ranking Member Norton and members of the subcommittee. Thank you for the opportunity to testify today. I am Paul Wiedefeld, general manager of the Washington Metropolitan Area Transit Authority, also known as Metro.    What I thought I would do is just summarize very quickly what my priorities have been since I joined November 30th for the agency, talk a little bit about what we are up against and what I am trying to do about it, and then just wrap up with some concluding remarks.    In terms of what my priorities are, obviously, safety, service, reliability, and fiscal management. And so, what we are up against, I think it is important just to step back and think about the physical nature of what we are up against before we get into some of the management issues. But I think we have to recognize that this is a two-track railroad system which presents a lot of challenges for maintenance, because you cannot maintain the system without impacting the customers is basically what we have here.    And you add on top of that decades of delayed maintenance and underfunding onto that, that has created a lot of the issues that we are dealing with. On top of that is an aging fleet, the cars, the trains themselves. So that is on the rail side.    I think it is also important to recognize that Metro is more than just rail, it is also a very major bus system. We do almost 600,000 people a day on the bus system alone. And in that case we have a much better fleet, but we do have some basic infrastructure services, as well, that need to be fixed, particularly in garages.    In terms of the agency, what I found is what I have heard echoed here, is both a lack of safety and service culture within the organization, and it permeates throughout the entire organization, both management and frontline employees.    There has been a lack of accountability on the management, on the frontline people, and also a lack of strong management systems put in place.    There has been a lack of a sustainable and predictable funding source over the decades for this system. We are facing ridership decline. Part of that is self-inflicted by some of the performance levels that we have provided, but also just the change in demographics in the region and the way that we travel.    Our paratransit, MetroAccess, is also increasing in demand. It is one of our most expensive services, and we need to think about how we provide that service, as well, to that part of the community.    Crime, as was mentioned, is a concern for all transit agencies. Unfortunately, we have had some terrible and very visible incidents on our system recently, both on our passengers and on some of our employees. And always in the back and front of my mind is terrorism, and we always have to make sure that we are doing everything on our part to be prepared for anything that may occur there.    So, what are we doing? In March, I released a Customer Accountability Report, where basically there are 60 action items that we have outlined of what we are doing to both increase the overall performance and the customer service portion of what we do. I did release several weeks ago the rail maintenance plan called SafeTrack. Basically, the current approach, in my estimation, is not working. We need a much more holistic and transparent process for how we go about that upgrading of the tracks.    I have been working very closely with our manufacturer of the train sets, which is Kawasaki. We now have 134 property, have 120 in service. That is the 7000 series. We have 748 of those ordered. And as soon as we get those to the point where I am comfortable we are delivering what we paid for, we will start to increase that delivery of those cars.    The bus fleet is maintained well, and will continue in that area. On the MetroAccess we are looking at brokering some outside third-party vendors to provide better service for there.    In terms of safety and service culture, that starts with me basically driving home that that is the most important thing that we do. Recently I have come out with a number of things to reinforce that. Safety trumps all. We now have our track inspectors, and people that have the ability to understand the system can shut down the system at any time if they see something that they want to get out and look at, which was not the case in the past.    We have a new chief safety officer, which I just brought in early this month. We are looking at--the police are doing a Metro--basically constantly where we monitor the system every day, literally minute by minute, to apply our resources. And we are adding new resources there. And of course, we are working with the Joint Terrorism Task Force.    The good news is that the system over the years, 40 years, had driven the economic development and, really, our culture here in this region. And the business community is behind it, elected officials are behind it, and the riders are behind it. My job is to get it performing better, and then we will deal with other issues from my perspective into the future. But again, my priorities are on the safety, service, and the fiscal management, and that will continue to be my focus in the near term, and we will deal with the larger issues as we go forward.    So with that I will be glad to take any questions.    Mr. Graves of Missouri. Thank you very much.</t>
   </si>
   <si>
-    <t>Lovain</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Flowers?    Ms. Flowers. Thank you, Chairman Graves, Ranking Member Norton, Chairman Shuster, members of the subcommittee. Thank you for inviting me to report on the Federal Transit Administration's work to improve safety and reliability at WMATA. Together, safety and reliability comprise the minimum we should expect from public transportation. And yet, on both counts WMATA has fallen short.    In recent years the result has been not only delay and disruption, but also injury and fatality. Our goal at FTA is to make sure that WMATA restores safety and reliability for its riders and its employees. We are conducting on-the-ground inspections, leading accident investigations, and directing safety improvements that WMATA must make. To do this we are exercising the authority Congress provided our agency.    Congress first authorized FTA to oversee the public safety of transportation systems under MAP-21, and the FAST Act strengthened FTA's ability to set national standards and to enforce them. Over the course of the past 4 years we have worked with transit industry stakeholders to develop regulations that would be effective, enforceable, and adaptable, the opposite of one size fits all. Where State safety oversight agencies do not exist, or where they fail, Congress gave FTA the statutory authority to step in. And that is where we are today in the DC metro area.    As Secretary Foxx has made clear, FTA's direct oversight of WMATA is temporary. Virginia, Maryland, and the District of Columbia must set up a new State safety oversight agency that is fully functioning, compliant with Federal requirements, and capable of providing effective oversight.    Nonetheless, since FTA assumed oversight, we have been able to work with WMATA to get results. WMATA has made steady progress in addressing the findings of our initial safety management inspection last year, and they have responded to troubling deficiencies we discovered at the rail operations control center. And as a result of findings from FTA's safety blitz in April that looked at three key areas--red signal overruns, track integrity, and rail vehicle securement--some track was taken out of service immediately to make repairs, and hundreds of defects have been fixed.    In addition to identifying and ordering the correction of safety problems, we have also conducted a review of WMATA's grant applications to ensure that Federal funds are being used to address both FTA and NTSB recommendations. But most troubling, however, is the fact that WMATA has failed to create an enduring culture of safety. And although this problem goes much further back, I would like to talk about a recent example.    On May 5th a third-rail insulator exploded alongside the platform at the Federal Center Southwest station. Although our investigation of this incident is ongoing, our preliminary information shows that WMATA's response to this event was slow and inadequate. In this event, operational convenience was clearly prioritized above safety. Not only did WMATA fail to notify FTA in a timely manner, but WMATA's own emergency response team waited hours for track access after only a cursory inspection was made and service was initially resumed. It was only later in the day when another fire occurred in the same area that track was taken out of service and the problem was thoroughly addressed.    Such errors in judgment and breaches of safety protocol are simply unacceptable. Safety must come first before service. As a result, we issued a safety directive requiring WMATA to take immediate action to prioritize safety before operations, to mitigate fire and smoke risks, improve emergency planning and preparedness, and conduct a safety standdown. We have verified that WMATA has taken steps to address these immediate actions. And, to his credit, WMATA General Manager Paul Wiedefeld has been responsive to our safety concerns, and has demonstrated a commitment to safety.    But the agency still has a difficult task ahead. Beyond the need for critical investments in infrastructure, every one of their employees must make a personal commitment to safety. At FTA we are working with WMATA and our colleagues from across DOT to help restore Metrorail's safety and reliability. Thank you.    Mr. Graves of Missouri. Thank you, Ms. Flowers.    And next we will hear from Mr. Lovain.    Mr. Lovain. Mr. Chairman and members of the subcommittee, I am Tim Lovain, Chair of the National Capital Region Transportation Planning Board at the Metropolitan Washington Council of Governments. I also serve as a member of the Alexandria City Council.    The Transportation Planning Board is a federally designated metropolitan planning organization for the National Capital region. It is responsible for a continuing comprehensive and cooperative transportation planning process in this metropolitan area that includes 22 jurisdictions and over 5 million residents.    I would like to thank Chairman Graves and Ranking Member Norton for the opportunity to appear before you today to share my observations on the importance of Metro to this region. I have submitted more detailed testimony, so in my oral remarks I will emphasize three things: first, how critical Metro is to our region's mobility and prosperity; second, its importance to this region's largest employer, the Federal Government; and finally, the efforts underway to help Metro improve its safety and service reliability and be the world-class system the Nation's Capital deserves.    Last year Metrorail provided 710,000 rail trips on an average workday. Two million jobs, more than half of all jobs in the region, are located within a half-mile radius of Metrorail stations and Metro bus stops. Seventy-seven of the ninety-one Metrorail stations are in fifty-nine regional activity centers, our region's priority locations for growth. Eighty-six percent of this region's new office construction is occurring within one-quarter mile of Metrorail stations.    Metro helps to tie our multistate region together. It will also shape future transportation and development patterns, helping our region accommodate an additional 1.5 million people and 1.1 million jobs over the next 30 years. Already, one in five Metrorail riders come from zero-car households.    Metro also serves a unique role in helping this region accommodate extraordinary special events. For example, Metro provided 1.1 million rail trips on Inauguration Day in 2009.    Metro especially helps the Federal Government do business. As has been noted, the Federal workforce represents 43 percent of Metro's morning peak period commuters, and about 40 percent of this region's Federal workforce use the Metrorail system.    According to GSA [General Services Administration], 315 buildings with Federal offices or labs, not including the DOD, are within one-half mile of Metro stations, and it is GSA policy to try to locate future Federal office space near Metro.    The Federal Government has recognized Metro's importance to its operations through its financial contributions to the system's initial construction, the Silver Line, and the state-of-good-repair funding under the 2008 PRIIA [Passenger Rail Investment and Improvement Act]. It is very important that this Federal funding program for Metro be retained, as it is critical to undertaking and completing needed safety and state-of-good-repair work.    Metro's importance is magnified by the fact that Washington, DC, is the most important national capital in the world. Our 19 million annual visitors to this region come from around the country and around the world. Their impressions of the DC region and our Nation as a whole are shaped, in part, by their experience of the Metro system. This region deserves a world-class transit system. When Metrorail opened 40 years ago, it quickly gained a reputation as a world-class system, and we need to restore that reputation.    We certainly acknowledge that Metro is facing some significant challenges to ensure levels of safety and service reliability that characterize a world-class system. Improving the safety and reliability of the Washington Metro is the number-one priority in this region. This issue has the full attention and commitment at the State and local government levels within this region, and we are pleased that the Federal Transit Administration has been an active partner.    This work of improving safety and reliability is being tackled on many fronts. On the safety oversight front, FTA is providing the lead, working with the States. On the management front, we are very pleased that Paul Wiedefeld, in his short tenure, has taken bold actions to address these challenges and begin restoring the trust and pride of Metro riders. There is more work to be done, and our region has come together to work on it.    One additional and important resource that is needed to address the safety and reliability challenges, but is beyond Mr. Wiedefeld's power alone to fix, is the need for funding reform. I believe Metro is the only major rail transit system in the country that does not have a dedicated source of funding for its operations and state-of-good-repair needs. I believe that lack of dedicated funding has contributed to Metro's maintenance shortfalls. That is why regional leaders are coordinating through the Council of Governments and the Greater Washington Board of Trade to explore how we can work together at the State and local levels to provide long-term, predictable, sustainable, dedicated funding support to meet Metro's needs. And we look forward to continued and hopefully increased financial support from the Federal Government, as well.    I am confident that this region and the Federal Government can continue our partnership and rise up to address Metro's challenges. Working together, we can make Metro a regional and national asset for decades to come.    Thank you.    Mr. Graves of Missouri. Thank you very much. We will now move in to questions. And my first question is for Mr. Wiedefeld.    NTSB investigations of different WMATA incidences from 1982 all the way up to last year have unfortunately had very similar findings. It has come down to improper training of WMATA employees and inadequate emergency response by the operations control staff, which was pointed out by Ms. Flowers.    Why didn't Metro--and there are two questions here--why didn't Metro provide better training and staffing for emergency preparedness? And the second question is what have you changed at the rail operations control center to make sure that--you know, that this doesn't repeat itself?</t>
   </si>
   <si>
@@ -193,9 +166,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you. And I can tell where to look for some of those dollars. In MAP-21, we passed legislation that was supposed to consolidate or eliminate 50 to 60 programs. When we questioned in the Committee on Oversight and Government Reform, how many people had left, there was nobody. So there are plenty of people and plenty of resources. I suggest you might tell the Secretary to find some of them to go into the important oversight responsibility for the transit systems, Ms. Flowers. Ms. Flowers, now you're--the--with some fanfare, the Secretary's announced a--what's the name of the position that's going to be created?</t>
   </si>
   <si>
@@ -289,9 +259,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. And also, the concern is the people in America moving back into the cities. So if we don't have a system that is safe, I think we're headed for trouble. And I know we have a responsibility. We have a responsibility to make sure that there's enough funding there for the infrastructure, enough funding for the safety part of it, and quite frankly, I just want America to know that, you know, Washington, you can still come and you still use the system. And we're going to fix it.</t>
   </si>
   <si>
@@ -307,9 +274,6 @@
     <t>412410</t>
   </si>
   <si>
-    <t>Daniel Webster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Madam Chair. I ride the Metro every day, for 5\\1/2\\ years, since I've been in Congress. I go from Pentagon City to L'Enfant to Capitol South. And I, you know, I think there's two things here. And we're talking about more money, maybe saving, hiring people, firing people, doing all that. But all I know is that every day I ride, there's an escalator broken. So I started watching three escalators. There's a bunch of them that I ride on, but this is three.    And I would say that over the past few years, that these three that I've watched have been rebuilt four times. I mean, I'm talking about all new everything. All the treads. All the bearings and all of that. And it just seems to me like there'd be a more efficient way to do that. If we save money then we certainly can do more maintenance in the right place. I would tell you you ought to look, and I don't know if there's any reports or anything about that.    But all I can tell you is, I know, because I've seen it. On the other end, there's one escalator that was, is privately done. And in the 5\\1/2\\ years I've been riding that one, on that same system where you get dropped off, and then this one is done by the people that own the building. It's been broken once in 5\\1/2\\ years.    So I think there's probably--I don't know what you do as far as efficiency and as far as rechecking the people that do your maintenance and so forth. But if the other maintenance--I've never been in a, in a wreck or anything like that, so I don't know anything about the cars. I see them. You know, they may be, you may have extra ones. You may change them out all the time. I don't know that. What I do know is, the escalators are fixed. They're there, and you got to have them repaired time and time again.    And it just seems to me like, and I don't know if it's done by an independent contractor or by your employees or whether it's the, maybe it's the vendor that provides the actual treads and so forth on the escalator. But I would tell you I believe there's lots of savings to be found there, either by getting a different vendor or different employees or different, a different person that actually performs the work, if it's an independent contractor. So that's my two cents. That's only from my experience on it.    I don't live here. I have one real system in my district. It's owned by Disney World. And I've never seen it broken in the 30-some years they've been there. And we have a lot of people that ride that too. We have 66 million people that come by my district every, every year. And they go one place, Walt Disney World. And also Sea World, Universal Studios. But the one rail system there seems to be much more maintained. So I would suggest maybe just talking to those who own or operate rail systems. Maybe there's some savings there too. With that, Madam Chair, I yield back.</t>
   </si>
   <si>
@@ -319,9 +283,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you. And thank you to the witnesses. I know sometimes you probably sit in here thinking that Congress may do a better job at criticizing than fixing. Thank you for your patience and your courtesy. Also, I live near a subway and I rode the Metro. I used to love to ride the Metro. But they've, obviously these stories in the newspapers and on TV have been scary to me. So my first question is, could you quantify, has it been a decline in the ridership, and does that affect your budget? And the other question I have is also, with these very highly publicized criminal incidences, there was a young man that was stabbed multiple times. There was a woman that was recently sexually assaulted. And I don't mean to insinuate that that was the fault of Metro. What my question would be, is there anything that you can do to make it safer, or are you doing to make it safer, for the riders?</t>
   </si>
   <si>
@@ -367,9 +328,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Madam Chairman. Let me come back, Mr. Wiedefeld, too, to you. Obviously we've had our dealings before. And I guess my concern is today, we've heard a lot of talk about funding. And the focus is all about funding. And yet I understand that perhaps this is not a funding issue as much as it is a management issue and truly a maintenance issue. Is that correct?</t>
   </si>
   <si>
@@ -466,9 +424,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you. And I'm going to--before I get into the meat of things, there's a couple of things I want to make sure I get out there. And first of all I'll say that I started a few years ago in here the first Congressional Public Transportation Caucus because of how important it is that we support public transit across the country. Not just my hometown of Chicago but I'm also a Metro rider, when I'm out here. So first thing I wanted to mention, I'm going to have a question for the record about WMATA's recent cancellation of the new electronic payment program, which I know is designed to make the customer experience better.    And too, reportedly it would have saved WMATA $60 million a year. I know there's much invested in this. And we certainly have a few challenges with the current fare collection system. So I just, I'm going to be asking a question for the record on that and what has happened with that. I want to move on. I just wanted to ask a quick question to Ms. Flowers. A recent assault on a DC Metro bus driver became deadly when the bus was hijacked and horrifically killed a pedestrian. And driver assaults are a national issue. The FAST Act asked FTA to issue a Notice of Proposed Rulemaking on driver assaults, which is a growing issue. Is--when will FTA issue its rulemaking?</t>
   </si>
   <si>
@@ -569,9 +524,6 @@
   </si>
   <si>
     <t>412524</t>
-  </si>
-  <si>
-    <t>Elizabeth H. Esty</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Esty. Thank you very much. And I want to thank you all for joining us here today. And as somebody who as a high school student was in those Metros when they were being built, with my father, who as part of construction teams building them, I have particular interest in the legacy around how we maintain these systems. So a couple of different questions. First, Mr. Wiedefeld, on the safety culture, who are you looking at? What organizations or what institutions do you think we should be looking at to inculcate the kind of safety culture that needs to be instinct?</t>
@@ -1075,11 +1027,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1099,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1125,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1151,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1177,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1203,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1229,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1255,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1281,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1307,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1333,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1359,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1385,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1411,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1437,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1463,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1489,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1515,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1543,11 +1459,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1567,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1593,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1619,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1647,11 +1555,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1671,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1697,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1723,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1749,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1775,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1801,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1827,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1853,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1879,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1907,11 +1795,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1931,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1957,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1983,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2009,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2035,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2061,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2087,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2113,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2139,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2165,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2191,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2217,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2243,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2269,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2295,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2321,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2347,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2373,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2399,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2425,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2451,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2477,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2503,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2529,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2555,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2581,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2607,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G61" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2633,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2659,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
-      </c>
-      <c r="G63" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2687,11 +2515,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2711,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2737,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2763,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2789,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G68" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2817,11 +2635,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2841,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" t="s">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2869,11 +2683,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2893,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
-      </c>
-      <c r="G72" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2919,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2945,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2971,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2997,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3023,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3049,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
-      </c>
-      <c r="G78" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3075,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3101,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3127,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3153,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
-      </c>
-      <c r="G82" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3179,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3205,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>101</v>
-      </c>
-      <c r="H84" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3233,11 +3019,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3257,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
-      </c>
-      <c r="G86" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3283,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3309,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
-      </c>
-      <c r="G88" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3335,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3361,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
-      </c>
-      <c r="G90" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3387,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3413,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3439,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3465,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3491,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3517,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3543,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3569,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
         <v>116</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
-      <c r="H98" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3595,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3621,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
-      </c>
-      <c r="G100" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>117</v>
-      </c>
-      <c r="H100" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3647,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3673,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3699,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3725,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3751,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3777,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3803,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3829,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
-      </c>
-      <c r="G108" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3855,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3881,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>116</v>
-      </c>
-      <c r="G110" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3907,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3933,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>116</v>
-      </c>
-      <c r="G112" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3959,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3985,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>116</v>
-      </c>
-      <c r="G114" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4011,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4037,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>116</v>
-      </c>
-      <c r="G116" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4065,11 +3787,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4089,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>149</v>
-      </c>
-      <c r="G118" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4115,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
-      </c>
-      <c r="G119" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4141,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4167,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>149</v>
-      </c>
-      <c r="G121" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4193,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4219,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>149</v>
-      </c>
-      <c r="G123" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4245,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4271,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>149</v>
-      </c>
-      <c r="G125" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4297,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4323,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
-      </c>
-      <c r="G127" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4349,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4375,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
-      </c>
-      <c r="G129" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4403,11 +4099,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4427,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4455,11 +4147,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4479,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4507,11 +4195,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4531,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4559,11 +4243,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4583,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4611,11 +4291,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4635,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4663,11 +4339,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4687,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4715,11 +4387,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4739,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4767,11 +4435,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4791,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4819,11 +4483,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4843,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4871,11 +4531,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4895,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4923,11 +4579,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4947,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4975,11 +4627,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4999,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>184</v>
-      </c>
-      <c r="G153" t="s">
-        <v>185</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5025,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5051,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>184</v>
-      </c>
-      <c r="G155" t="s">
-        <v>185</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5077,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5103,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>184</v>
-      </c>
-      <c r="G157" t="s">
-        <v>185</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5129,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>184</v>
-      </c>
-      <c r="G158" t="s">
-        <v>185</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5155,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5181,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>184</v>
-      </c>
-      <c r="G160" t="s">
-        <v>185</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5209,11 +4843,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5233,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5259,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5285,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5311,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5337,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5365,11 +4987,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5389,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>24</v>
-      </c>
-      <c r="G168" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5417,11 +5035,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5441,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>24</v>
-      </c>
-      <c r="G170" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5469,11 +5083,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5493,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5521,11 +5131,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5545,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G174" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5573,11 +5179,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5597,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>24</v>
-      </c>
-      <c r="G176" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5625,11 +5227,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5649,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>24</v>
-      </c>
-      <c r="G178" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5677,11 +5275,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5703,11 +5299,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5727,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5755,11 +5347,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5779,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>24</v>
-      </c>
-      <c r="G183" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5807,11 +5395,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5831,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>24</v>
-      </c>
-      <c r="G185" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5859,11 +5443,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5883,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>24</v>
-      </c>
-      <c r="G187" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5911,11 +5491,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20217.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,36 @@
     <t>412658</t>
   </si>
   <si>
+    <t>Comstock</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Comstock. Thank you, Mr. Chairman. I ask unanimous consent to offer an extended opening statement for the record.    But first of all, last Friday, when the Metro's general manager, Paul Wiedefeld, who is with us today, terminated 20 managers, 7 of whom were considered senior, I think we all hoped that this is just the beginning of a new era of accountability and transparency at Metro, and I know our Washington delegation all voiced support for you in this action, as well as a number of your recent actions. We need to find new ways to run this rail.    I join Congressman Delaney on changing the board structure and legislation on that front, and we are pleased to see new board members are focused on being experienced board members with transportation and management experience.    On cost issues, according to FTA and DOT [Department of Transportation] data, Metrorail's costs run 120 percent to 150 percent higher than comparable transit systems. That is why I appreciate that Mr. Wiedefeld said at a recent Loudoun County event that he attended with me that he is not asking for more money at this time, but is very much focused on addressing these issues and how we can restructure Metro and how we can address some of these issues on labor negotiations that are coming up, and how we can find ways to do better.    I am concerned that there is a clause in the current labor agreement which states--and I quote--``The authority shall not contract out or subcontract any work normally performed by the employees within the bargaining unit defined in this agreement which would result in a layoff, transfer, or demotion of these employees.'' Does this prevent Metro from having the kind of flexibility to realize the cost savings of contracting out track work and having the best people at the best price do this work? I know I have talked with the new general manager and FTA about these issues.    I have also met with businesses who are doing track work who tell us they can do this at lower costs than we are currently paying, and our current costs seem to run well ahead of Davis-Bacon costs.    I also want to see how we are using new technologies that can document the track work being done, technologies that can save money and increase safety and transparency, and are already being used at other rail systems around the country. I hope we can explore that more. And since I am chairman of the Subcommittee on Research and Technology of the Committee on Science, Space, and Technology, we are going to be looking into having hearings on that. So anywhere we can assist you on that, we want to find the best, most cost-efficient systems that save our taxpayers money.    Finally, I want to address the disturbing report we saw in the news last night about a rape that occurred last month on Metro in broad daylight, 10 o'clock in the morning. Clearly, we also have--and I hear this from people all the time--the concerns about basic personal safety. I have had people approach me at my own stations having personal safety issues, and this is something that is, obviously, unacceptable, but also a concern, that this wasn't immediately made known, when this report was made, and how are we doing all of these things. Because I appreciate we have talked about this new era of transparency, as well as the culture of safety that we all need and finding, you know, better ways to save money.    But I do appreciate that you have talked about putting more people on the front lines in the stations, and I think this very troubling incident is one of the many reasons we have to have more people out of the back office and on the front lines, protecting our customers and our constituents.    Again I thank the chairman and our witnesses today. I thank the chairman very much for this important hearing, and for his hard work on this effort. And I look forward to hearing from our witnesses today. Thank you.    Mr. Graves of Missouri. Thank you very much. I now turn to Ranking Member Norton for her opening statement.</t>
   </si>
   <si>
     <t>400295</t>
   </si>
   <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman. I have to begin by saying how much I appreciate this hearing. I think the fact that we are having this hearing today points to how important WMATA is, of course, to its immediate region, but also to the Federal Government itself. We are locked into this together, and into WMATA's problems together, and unwinding them together.    I stress WMATA's uniqueness. No other Metro system across the United States has to respond to three different jurisdictions. That is a built-in structural problem that neither WMATA nor, for that matter, those of us in the Federal Government have been able to help WMATA somehow get over. This is one of the reasons for WMATA's complexities. And those complexities play prominently into the changes that are needed.    For example, just this morning Secretary Foxx announced that he was appointing a high-level official from his office to help hasten the work of the three jurisdictions in setting up their own safety oversight mechanism. The new CEO, Mr. Wiedefeld, has taken steps that have been acknowledged as bold and necessary--despite inconveniencing the public.    But here we have dual issues that collide. We want the public to be safe, and we want the public to be able to get where they are going quickly. And how WMATA solves that during this process when they are overhauling the system, is one of the issues we want to face today. The basic challenge WMATA will meet after this single year of essentially rebuilding much of the system is how to keep it that way. And I will want to hear more this morning about that.    The word ``safety culture'' is thrown around. What does that mean? It is a really scary word, because it means that something is embedded in how the WMATA operates that somehow has to be dug out. And the culture notion has not been defined.    Congress, of course, passed MAP-21 [Moving Ahead for Progress in the 21st Century Act], giving the Federal Transit Administration safety oversight over public transportation in the United States, and we reinforced that in the FAST [Fixing America's Surface Transportation] Act. Now WMATA safety issues pile onto FTA that it would like to offload. And I think the SafeTrack plan of the general manager will help to do that.    Some of Metro's funds are being held up because, inexcusably, on top of all of its other issues, it mishandled its finances and is therefore having trouble getting its Federal funds. That is something that has to be worked out and worked out very quickly. It looks like WMATA has taken the necessary actions, but that the Federal Transit Administration has not responded appropriately. So if WMATA does something right, we expect the Federal agency to respond in kind.    Mr. Chairman, I am very anxious to hear the testimony. I very much appreciate that the witnesses have prepared thoughtful testimony today. I think you see how much today's hearing means to the region as three Members of the region are here to testify, and I thank them for coming, as well. I yield back, sir.    Mr. Graves of Missouri. Thank you very much. I now turn to the chairman of the full committee, Bill Shuster.</t>
   </si>
   <si>
     <t>409888</t>
   </si>
   <si>
+    <t>Shuster</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you, Mr. Chairman. I thank our witnesses being here today. With the panel we have Messrs. Hoyer, Connolly, and Delaney, and then three members of the committee, Mrs. Comstock, Ms. Norton, and Ms. Edwards, we have got the entire House delegation that represents the area, which--we can tell it is an important issue to them, but it is really an important issue to all of us.    Millions of people come to Washington, DC, every year, from around--our fellow citizens to people from around the world. And this transit system really ought to be the crown jewel of the transit systems around the country. And in fact, they get more money per capita than any other system in the country, but they also spend more money than any other system in the country. And we have got to bring those things into alignment. But this needs to be a system that is safe, safety has to be paramount.    And for over 50 years, as mentioned, the Metro system has benefitted by Federal support. So this is really important to the entire Nation, that we get this right. In addition to the monies that the Federal Government gives to the Metro system, also 40 percent of the Metro's rush-hour riders are provided--Federal employees are provided a subsidy to ride that system.    So, again, the safety of the people that we work with every day and depend on to help us operate the Government depend on this system being a safe and reliable system. But despite all that Federal investment, the safety and reliability record has deteriorated. And it is because, I believe, and from what I have talked to other folks, it has not switched its responsibility from building a system to operating and maintaining a system.    What it takes, I believe, is a cultural change at Metro, and I am pleased that the new CEO, I think, is doing just that. What--the Federal Transit Administration has temporarily taken over that authority, and Administrator Flowers is here today to talk about that. That oversight needed to be done because Metro hasn't been able to do it appropriately.    Secretary Foxx has given 1 year to the WMATA, to Virginia, Maryland, and DC to step up to the plate and do what is necessary on this, on the oversight.    And last year, Congress, we passed the FAST Act. And in that we strengthened FTA's safety oversight authority and provides the DC region with 5 years of increased funding. Again, more Federal dollars that the citizens of America are contributing to this system. As I said, this should be the crown jewel of the system and it is not, and we deserve to have that.    Again, the new CEO, Paul Wiedefeld, is here today. And his record as a manager of--making things run in the proper way, he has got the right resume for it, and I think his strong statements in just his first year really has woken folks up to the need for strong management, for a cultural change at this transit system.    So again, I welcome our--my colleagues here today, look forward to hearing from them and also from Mr. Wiedefeld and Ms. Flowers on this issue.</t>
   </si>
   <si>
@@ -73,27 +94,48 @@
     <t>400100</t>
   </si>
   <si>
+    <t>DeFazio</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you, Mr. Chairman. Well, it is sad that we are here today under these circumstances. There are certainly management issues at WMATA, and I will get into that in a moment. But let's get to the bottom line here: Congress has neglected to make sufficient investments in infrastructure.    Everywhere in the country, cities are struggling between the pressure to build out more transit and new options--and that is certainly going on here, in what is arguably potentially the most congested traffic region in the United States of America, and then maintaining their legacy systems. And Congress hasn't been willing to be an equal partner. There is an $84 billion backlog, nationally, to bring transit up to a state of good repair.    Yes, the FAST Act is going to give us a little more money. That is good. But with the amount of money there, we are never going to get a state of good repair, never. We are just about treading water. And right now, DOT says the average annual level required to eliminate the backlog by 2030 is $18.5 billion a year. And, well, we are putting up $10 billion. Uh-oh, that doesn't sound too good, does it?    It is pretty embarrassing when in what is called the capital of the free world, the greatest country on Earth, American exceptionalism, we are killing people on a transit system with a combination of budgetary pressures and management issues.    Now, I think we are going to make real progress on the management issues, and we will hear about that later today. But what about the money? We cannot ignore the need for additional investment.    Now, when the so-called American Recovery Act passed, which I voted against because 4 percent of that 800-some billion dollars went into infrastructure investment--4 percent--cities like Chicago just pulled projects off the shelf. They had the money committed in 30 days. They could have spent 10, 20 times as much money on project sitting on the shelf, waiting to happen, that are critical for the safety and security of their riders and, obviously, the efficiency of the system.    So we cannot ignore the thousand-pound gorilla in the room. We aren't putting up the money we need to be a good partner. We only partner 50 percent, and we don't help with operations. And, you know, we are just walking away from that. So that is why we are here today.    So let's not just say this was a management issue or, oh, gee, they spend more money or, gee, they are less efficient. Yes, those are all issues. But the bottom line is this is not a unique circumstance. This, what is happening here in Washington, DC, is getting attention. But there is--that is happening in every major legacy system across the country today, and it is happening in cities that want to give their people new transit options and have to choose between running a bus with 1 billion miles on it that is breaking down every day--maybe the brakes don't work so well--and giving people those new options to get them out of congestion.    We shouldn't have to make those choices. Our country, the United States of America, can afford to do both. We can afford to partner and help them rebuild and maintain and build out the new options, but it is going to take a new attitude here in Congress.    I have offered many ways to help increase transit funding and highway funding. They have all been rejected. We weren't even allowed to vote on one single amendment when we did the FAST Act. They were not allowed. Many amendments were offered, including bipartisan amendments, that dealt with funding. Instead, we took money from the TSA [Transportation Safety Administration] to help pay for that bill, and now people are standing in line at the airports. Wow.    We are going to keep shuffling stuff around until nothing works in this country any more.    Thank you, Mr. Chairman. I look forward to the hearing.    Mr. Graves of Missouri. Thank you very much. Today we have two panels, and I want to welcome our first panel.    We have got the Honorable Steny Hoyer, who is representing the Fifth District of Maryland; the Honorable Gerry Connolly, who is representing the 11th District of Virginia; and the Honorable John Delaney, who is representing the Sixth District of Maryland.    I would ask unanimous consent that our witnesses' full statements be included in the record.    [No response.]    Mr. Graves of Missouri. And, without objection, that is so ordered.    And with that we will start with Mr. Hoyer. Thank you for being here.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Hoyer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hoyer. Thank you very much, Chairman Graves and Ranking Member DeFazio. And I want to associate myself with the remarks from the gentleman from Pennsylvania, Mr. Shuster, the chairman of the committee. Clearly, this was the crown jewel. Clearly, nobody would be calling it the crown jewel today. And clearly, it must be the crown jewel for all the regions the chairman mentioned in terms of--we used to call this and still call it America's subway, because millions and millions of everybody's constituents in this room use this system.    I appreciate the opportunity to share my input with the subcommittee regarding the Washington Metropolitan Area Transit Authority and the need for robust investment and high safety standards.    The safety and reliability of the Metro is of critical importance, not only to Washington, DC, and its surrounding communities. It is also critical to the smooth functioning of the Federal Government and of our national defense and homeland security.    Both civilian and military rely on the Metro to get to their offices and to their duty stations. My district is home to 62,000 Federal employees, and many who serve in military jobs located here in regional installations. Many of them depend on Metro to get to work each day to serve the American people. Metro is also a crucial tool for the millions of Americans and foreign visitors who come to our Nation's Capital each year. That is the premise which underlines our Federal focus.    I joined the rest of the National Capital region delegation last Wednesday for a meeting with Paul Wiedefeld, Metro's new general manager, of whom many of you have spoken and spoken positively--and I think that--appropriately, as well--to discuss WMATA's new SafeTrack plan, which aims to address maintenance and rehabilitation efforts to improve safety. However, we spoke on a more broad basis than simply the SafeTrack program.    The recent incidents of fire and the daylong shutdown for diagnostic inspections have brought to light a number of very critical repairs that must be done to ensure that riders are always safe when using the Metro system. In some ways, these problems are the result of past failures to invest adequately in long-term maintenance and upgrades.    As the new 7000-series cars are brought into the fleet, we need to make sure that the tracks and tunnels that these new modern cars run on are up to date, as well. Metro safety and reliability is a critical concern for residents of Maryland's Fifth District, which is home to commuters served by all of Metro's lines.    I am disappointed, as I know many are, that Metro needs to implement the SafeTrack plan in the first place. But it is necessary. We shouldn't be in a situation, however, where entire lines may be shut down for maintenance, and where the predictability and reliability of train schedules has been undermined. But I am very impressed with Mr. Wiedefeld's leadership and his determination to take the steps necessary to put Metro back on course to be a system that all in our region and in our country can be proud of.    We have a ways to go before we can get to that point. But it is encouraging that WMATA's leadership is fully committed to putting passenger safety first, and is acting to improve safety in the near and in the long term.    Mr. Chairman, I hope the subcommittee and the full committee will support investments in Metro's safety and service, so that the SafeTrack plan will be as successful as possible as quickly as possible. Congress has a responsibility to make sure that the Metro system, which we call America's subway, can well serve those who serve American citizens, as well.    I want to thank Ranking Member Eleanor Holmes Norton for her untiring advocacy on behalf of Metro and all those who ride it.    And Mr. Chairman, I want to assure you and Mr. Shuster and Ms. Norton and Mr. DeFazio that the Washington metropolitan delegation is united in its determination to ensure, working with you, that America's subway is a subway system second to none. Thank you very much.    Mr. Graves of Missouri. Thank you, Congressman Hoyer.    Next is Congressman Connolly.</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Chairman Graves, Chairman Shuster, Ranking Members Norton and DeFazio, thank you so much for having us here today. I am delighted to join with my colleagues, Mr. Hoyer and Mr. Delaney.    I serve as the ranking member of the Subcommittee on Government Operations of the Committee on Oversight and Government Reform, which held its own hearings on Metro in the wake of the L'Enfant Plaza tragedy. The challenges facing Metro are significant, and I welcome collaboration between our two committees to ensure robust oversight over Metro's management of Federal dollars and adherence to Federal safety standards.    I spent the last 22 years working on Metro, first as a member of the Fairfax County Board of Supervisors, where as chairman I made appointments to the Metro board and approved the local operating subsidy. For the past 8 years I have worked with you and your colleagues here on this committee to secure the $150 million annual Federal commitment for Metro safety improvements, which is matched dollar for dollar by Virginia, DC, and Maryland. No one is more disheartened than I am with the unacceptable and unsustainable state of affairs at Metro.    I want to start by commending this committee for your efforts, through MAP-21 and then the FAST Act, to create a comprehensive framework of safety standards for Metro and all of the Nation's transit systems. As the NTSB [National Transportation Safety Board] and the FTA have highlighted again and again, Metro's current local safety agency, the Tri-State Oversight Committee, is nothing more than a paper tiger without the proper resources or tools to provide effective oversight.    Our partners in Virginia, Maryland, and DC are working together to stand up a new Metro safety commission next year that will meet and enforce the new Federal standards. Until then, Secretary Foxx, acting under new authorities in the FAST Act, has appointed the FTA as the interim safety oversight agency. While I respectfully disagreed with that action, deferring instead to the NTSB's recommendation to use the FRA's [Federal Railroad Administration's] more robust safety standards, I share the committee's and Secretary's ultimate goal for addressing the shocking lack of safety culture within Metro.    To that end, I welcome an opportunity to work with you to explore further expanding the FTA's authorities to better match not only the oversight, but also the enforcement authorities under the FRA to address the NTSB's urgent safety recommendations. In fact, Metro's new general manager has indicated he is voluntarily directing his team to explore what FRA standards they can apply on their own. Regardless of what style of transit commuters are using, they deserve to know they are being protected by effective and enforceable Federal standards.    What we are witnessing today with Metro is the result of a decades-long march into mediocrity and dysfunction. Riders are now confronted with near-daily service or safety delays, including today, Mr. Chairman. And incidents of arcing or smoke in the tunnels have become all too frequent and, frankly, are scaring riders away. Recent arcing incidents led the general manager to take the unprecedented step of shuttering the entire National Capital subway system for 24 hours in March. And earlier this month, the two stations serving Capitol Hill were closed during the evening rush hour.    Mr. Wiedefeld recently released an aggressive proposal to single-track and shut down portions of Metro lines for days at a time in order to condense 3 years' worth of deferred maintenance--3 years--into 1 year. This will present significant and sustained challenges to riders in the Federal Government. Federal employees account for 40 percent of all Metro riders. So we have called on OPM [Office of Personnel Management] and all Federal agencies to push telework and flexible work schedules during this time.    Of course, Metro cannot focus only on track and infrastructure repairs. A complete systemwide change in culture is necessary. Safety and personnel actions already taken by Mr. Wiedefeld should serve as a shot across the bow that indifference to safety and customer service will no longer be tolerated.    These are not problems that can be fixed overnight. Metro and its partners face a monumental task, and the Federal Government must be a full-funding partner in this effort. And I welcome the opportunity to work with this committee to explore options for expanding our Federal commitment, to include operating subsidies. The Federal Government is the only compact member that does not pay any share of operating subsidies.    We also must incentivize the National Capital region to finally create a dedicated source of revenue for funding Metro. These are separate but equally important investments critical to Metro's future success.    Metro, Mr. Chairman, has been our single greatest regional achievement, and in many ways our single biggest disappointment. Working together we can restore America's subway to the place of prominence it once held, and setting the standard for other transit systems across the Nation, giving our riders the world-class system they so sorely deserve. Thank you.    Mr. Graves of Missouri. Thank you, Mr. Connolly.    Next is Representative John Delaney.    Thanks for being here.</t>
   </si>
   <si>
+    <t>Delaney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Delaney. Thank you. I want to thank the chair and the ranking member and all of my colleagues for giving me this opportunity to discuss Metro with you today. It is, obviously, something that is very important to my constituents, many of which use this system on a daily basis. It is also important, as we know, to everyone who lives in the National Capital region, and to all the visitors of our Nation's Capital.    Clearly, Metro is an organization in crisis with significant deficiencies around safety, around reliability, around customer service, and around financial management. And if you diagnose the problems with Metro, you realize there are several causes.    The first Ranking Member Norton discussed, which is Metro effectively reports to four governing jurisdictions; DC, Maryland, Virginia, and the Federal Government. This four-headed monster makes it very difficult for Metro to get the kind of funding and oversight that would be optimal for an organization of its scale.    Secondly, as Ranking Member DeFazio talked about, by any measure Metro has been underfunded, and it has lacked a reliable source of funding, which has created greater uncertainty, and made the underfunded situation even more pronounced.    And finally, it has clearly been mismanaged, perhaps for several decades. When you look back at management decisions, whether they be strategic or tactical, that, clearly, poor decisions were made. I, like you, want to exclude the current general manager from that criticism because I, like you, share the view that he is off to a very good start and we should be very supportive of him.    But I think there is another issue that needs to be considered when you talk about what is going on with Metro, and this gets to Chairman Shuster's comments about culture, which is Metro has clearly had a deficient culture, as it relates to its priorities. And I think that raises a governance question. In other words, what is happening in terms of the board, the board of directors, in the governance and management of Metro?    As someone who spent my whole career in the private sector chairing two publicly traded companies and also being on the board of very high-performing nonprofits, I think governance really matters because a good board sets the correct mission, sets the correct strategic goals. Their most important responsibility is to recruit management, to hold them accountable; if they are not living up to the goals, make management changes; and to secure the funding that the enterprise needs.    And the way they secure the funding is by making people believe that they are actually running the place right. And I think this is a significant question with Metro. Right now, Metro has a 16-person board. Four of those members are appointed by each relevant jurisdiction. And currently, there are no standards for who those members can be.    Mr. Shuster--or the chairman, I think you said you can't legislate certain things. One thing you can't legislate is good governance. But you can do things to make sure we have the best people possible sitting around the table, making these decisions, instead of maybe just elected officials or instead of just people who were given a board spot because they raised a lot of money for their relevant elected officers.    And so, what I have tried to do is put forth--and Representative Comstock has been supportive of this with me--put forth a framework where the jurisdictions will be required, as part of their appointment process, to certify that the members that they are appointing are experts in either finance, in management, in transit, or in safety. I think this will put people with more qualifications and more experience around the board table at Metro, and I think it will encourage maybe longer term thinking, because my sense is these people will probably have more experience in board governance matters, and they won't think about their own unique interests in the particular jurisdictions they represent, but spend more time thinking about the good of the whole enterprise, which is what a real fiduciary should do.    So I think, to talk about specific things we can do to change the culture, in addition to getting more funding, in addition to supporting the new management changes, I think there are some important things we can do around governance. And I applaud Secretary Foxx, who is actually taking a step in this direction. He recently changed all of the Federal appointees to the board, and put up four people who clearly have expertise in safety, which is something we support.    But we would also like to see some people sitting around the table who have finance experience, management experience, and real transit experience, so we get some real experts thinking long term for the good of the enterprise, creating the right mission, getting the right management team in place, and holding them accountable. And I think, over time, that can change the culture of Metro.    So I appreciate the opportunity to be here with you.    Mr. Graves of Missouri. Thank you very much, all three of you. And with that I will dismiss the first panel and we will bring the second panel up. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Norton. Mr. Chairman, while the second panel is coming up, I would like to ask that the statement of Representative Chris Van Hollen, a Member who represents a jurisdiction in this region, be admitted to the record.    And I would like to ask unanimous consent to correct the record, and to have a chart that shows Federal funding for WMATA, compared to other transit agencies. WMATA receives 19 percent of its budget from Federal contributions; 17 percent is the industry average. On fares, WMATA's fares cover 32.6 percent of its budget, where the industry average is 23.3 percent. And I ask that this chart be entered into the record, as well.    [No response.]    Mr. Graves of Missouri. Without objection, so ordered.    [Mr. Van Hollen's prepared statement and the chart offered by Ms. Norton for the record follow:]    Mr. Graves of Missouri. Now I would like to take this opportunity to welcome our second panel.    We have Mr. Paul Wiedefeld, who is the general manager of the Washington Metropolitan Area Transit Authority; Ms. Carolyn Flowers, who is the Acting Administrator, Federal Transit Administration; and the Honorable Tim Lovain, Chair of the National Capital Region Transportation Planning Board of the Metropolitan Washington Council of Governments.    And with that I would ask unanimous consent that our witnesses' full statements be included in the record.    [No response.]    Mr. Graves of Missouri. And without objection, that is so ordered. And since the written statements are going to be included in the record, I would request you try to limit your comments to 5 minutes.    And with that, Mr. Wiedefeld, we will start with you.</t>
   </si>
   <si>
+    <t>Wiedefeld</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wiedefeld. Good morning, Chairman Graves and Ranking Member Norton and members of the subcommittee. Thank you for the opportunity to testify today. I am Paul Wiedefeld, general manager of the Washington Metropolitan Area Transit Authority, also known as Metro.    What I thought I would do is just summarize very quickly what my priorities have been since I joined November 30th for the agency, talk a little bit about what we are up against and what I am trying to do about it, and then just wrap up with some concluding remarks.    In terms of what my priorities are, obviously, safety, service, reliability, and fiscal management. And so, what we are up against, I think it is important just to step back and think about the physical nature of what we are up against before we get into some of the management issues. But I think we have to recognize that this is a two-track railroad system which presents a lot of challenges for maintenance, because you cannot maintain the system without impacting the customers is basically what we have here.    And you add on top of that decades of delayed maintenance and underfunding onto that, that has created a lot of the issues that we are dealing with. On top of that is an aging fleet, the cars, the trains themselves. So that is on the rail side.    I think it is also important to recognize that Metro is more than just rail, it is also a very major bus system. We do almost 600,000 people a day on the bus system alone. And in that case we have a much better fleet, but we do have some basic infrastructure services, as well, that need to be fixed, particularly in garages.    In terms of the agency, what I found is what I have heard echoed here, is both a lack of safety and service culture within the organization, and it permeates throughout the entire organization, both management and frontline employees.    There has been a lack of accountability on the management, on the frontline people, and also a lack of strong management systems put in place.    There has been a lack of a sustainable and predictable funding source over the decades for this system. We are facing ridership decline. Part of that is self-inflicted by some of the performance levels that we have provided, but also just the change in demographics in the region and the way that we travel.    Our paratransit, MetroAccess, is also increasing in demand. It is one of our most expensive services, and we need to think about how we provide that service, as well, to that part of the community.    Crime, as was mentioned, is a concern for all transit agencies. Unfortunately, we have had some terrible and very visible incidents on our system recently, both on our passengers and on some of our employees. And always in the back and front of my mind is terrorism, and we always have to make sure that we are doing everything on our part to be prepared for anything that may occur there.    So, what are we doing? In March, I released a Customer Accountability Report, where basically there are 60 action items that we have outlined of what we are doing to both increase the overall performance and the customer service portion of what we do. I did release several weeks ago the rail maintenance plan called SafeTrack. Basically, the current approach, in my estimation, is not working. We need a much more holistic and transparent process for how we go about that upgrading of the tracks.    I have been working very closely with our manufacturer of the train sets, which is Kawasaki. We now have 134 property, have 120 in service. That is the 7000 series. We have 748 of those ordered. And as soon as we get those to the point where I am comfortable we are delivering what we paid for, we will start to increase that delivery of those cars.    The bus fleet is maintained well, and will continue in that area. On the MetroAccess we are looking at brokering some outside third-party vendors to provide better service for there.    In terms of safety and service culture, that starts with me basically driving home that that is the most important thing that we do. Recently I have come out with a number of things to reinforce that. Safety trumps all. We now have our track inspectors, and people that have the ability to understand the system can shut down the system at any time if they see something that they want to get out and look at, which was not the case in the past.    We have a new chief safety officer, which I just brought in early this month. We are looking at--the police are doing a Metro--basically constantly where we monitor the system every day, literally minute by minute, to apply our resources. And we are adding new resources there. And of course, we are working with the Joint Terrorism Task Force.    The good news is that the system over the years, 40 years, had driven the economic development and, really, our culture here in this region. And the business community is behind it, elected officials are behind it, and the riders are behind it. My job is to get it performing better, and then we will deal with other issues from my perspective into the future. But again, my priorities are on the safety, service, and the fiscal management, and that will continue to be my focus in the near term, and we will deal with the larger issues as we go forward.    So with that I will be glad to take any questions.    Mr. Graves of Missouri. Thank you very much.</t>
   </si>
   <si>
+    <t>Lovain</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Flowers?    Ms. Flowers. Thank you, Chairman Graves, Ranking Member Norton, Chairman Shuster, members of the subcommittee. Thank you for inviting me to report on the Federal Transit Administration's work to improve safety and reliability at WMATA. Together, safety and reliability comprise the minimum we should expect from public transportation. And yet, on both counts WMATA has fallen short.    In recent years the result has been not only delay and disruption, but also injury and fatality. Our goal at FTA is to make sure that WMATA restores safety and reliability for its riders and its employees. We are conducting on-the-ground inspections, leading accident investigations, and directing safety improvements that WMATA must make. To do this we are exercising the authority Congress provided our agency.    Congress first authorized FTA to oversee the public safety of transportation systems under MAP-21, and the FAST Act strengthened FTA's ability to set national standards and to enforce them. Over the course of the past 4 years we have worked with transit industry stakeholders to develop regulations that would be effective, enforceable, and adaptable, the opposite of one size fits all. Where State safety oversight agencies do not exist, or where they fail, Congress gave FTA the statutory authority to step in. And that is where we are today in the DC metro area.    As Secretary Foxx has made clear, FTA's direct oversight of WMATA is temporary. Virginia, Maryland, and the District of Columbia must set up a new State safety oversight agency that is fully functioning, compliant with Federal requirements, and capable of providing effective oversight.    Nonetheless, since FTA assumed oversight, we have been able to work with WMATA to get results. WMATA has made steady progress in addressing the findings of our initial safety management inspection last year, and they have responded to troubling deficiencies we discovered at the rail operations control center. And as a result of findings from FTA's safety blitz in April that looked at three key areas--red signal overruns, track integrity, and rail vehicle securement--some track was taken out of service immediately to make repairs, and hundreds of defects have been fixed.    In addition to identifying and ordering the correction of safety problems, we have also conducted a review of WMATA's grant applications to ensure that Federal funds are being used to address both FTA and NTSB recommendations. But most troubling, however, is the fact that WMATA has failed to create an enduring culture of safety. And although this problem goes much further back, I would like to talk about a recent example.    On May 5th a third-rail insulator exploded alongside the platform at the Federal Center Southwest station. Although our investigation of this incident is ongoing, our preliminary information shows that WMATA's response to this event was slow and inadequate. In this event, operational convenience was clearly prioritized above safety. Not only did WMATA fail to notify FTA in a timely manner, but WMATA's own emergency response team waited hours for track access after only a cursory inspection was made and service was initially resumed. It was only later in the day when another fire occurred in the same area that track was taken out of service and the problem was thoroughly addressed.    Such errors in judgment and breaches of safety protocol are simply unacceptable. Safety must come first before service. As a result, we issued a safety directive requiring WMATA to take immediate action to prioritize safety before operations, to mitigate fire and smoke risks, improve emergency planning and preparedness, and conduct a safety standdown. We have verified that WMATA has taken steps to address these immediate actions. And, to his credit, WMATA General Manager Paul Wiedefeld has been responsive to our safety concerns, and has demonstrated a commitment to safety.    But the agency still has a difficult task ahead. Beyond the need for critical investments in infrastructure, every one of their employees must make a personal commitment to safety. At FTA we are working with WMATA and our colleagues from across DOT to help restore Metrorail's safety and reliability. Thank you.    Mr. Graves of Missouri. Thank you, Ms. Flowers.    And next we will hear from Mr. Lovain.    Mr. Lovain. Mr. Chairman and members of the subcommittee, I am Tim Lovain, Chair of the National Capital Region Transportation Planning Board at the Metropolitan Washington Council of Governments. I also serve as a member of the Alexandria City Council.    The Transportation Planning Board is a federally designated metropolitan planning organization for the National Capital region. It is responsible for a continuing comprehensive and cooperative transportation planning process in this metropolitan area that includes 22 jurisdictions and over 5 million residents.    I would like to thank Chairman Graves and Ranking Member Norton for the opportunity to appear before you today to share my observations on the importance of Metro to this region. I have submitted more detailed testimony, so in my oral remarks I will emphasize three things: first, how critical Metro is to our region's mobility and prosperity; second, its importance to this region's largest employer, the Federal Government; and finally, the efforts underway to help Metro improve its safety and service reliability and be the world-class system the Nation's Capital deserves.    Last year Metrorail provided 710,000 rail trips on an average workday. Two million jobs, more than half of all jobs in the region, are located within a half-mile radius of Metrorail stations and Metro bus stops. Seventy-seven of the ninety-one Metrorail stations are in fifty-nine regional activity centers, our region's priority locations for growth. Eighty-six percent of this region's new office construction is occurring within one-quarter mile of Metrorail stations.    Metro helps to tie our multistate region together. It will also shape future transportation and development patterns, helping our region accommodate an additional 1.5 million people and 1.1 million jobs over the next 30 years. Already, one in five Metrorail riders come from zero-car households.    Metro also serves a unique role in helping this region accommodate extraordinary special events. For example, Metro provided 1.1 million rail trips on Inauguration Day in 2009.    Metro especially helps the Federal Government do business. As has been noted, the Federal workforce represents 43 percent of Metro's morning peak period commuters, and about 40 percent of this region's Federal workforce use the Metrorail system.    According to GSA [General Services Administration], 315 buildings with Federal offices or labs, not including the DOD, are within one-half mile of Metro stations, and it is GSA policy to try to locate future Federal office space near Metro.    The Federal Government has recognized Metro's importance to its operations through its financial contributions to the system's initial construction, the Silver Line, and the state-of-good-repair funding under the 2008 PRIIA [Passenger Rail Investment and Improvement Act]. It is very important that this Federal funding program for Metro be retained, as it is critical to undertaking and completing needed safety and state-of-good-repair work.    Metro's importance is magnified by the fact that Washington, DC, is the most important national capital in the world. Our 19 million annual visitors to this region come from around the country and around the world. Their impressions of the DC region and our Nation as a whole are shaped, in part, by their experience of the Metro system. This region deserves a world-class transit system. When Metrorail opened 40 years ago, it quickly gained a reputation as a world-class system, and we need to restore that reputation.    We certainly acknowledge that Metro is facing some significant challenges to ensure levels of safety and service reliability that characterize a world-class system. Improving the safety and reliability of the Washington Metro is the number-one priority in this region. This issue has the full attention and commitment at the State and local government levels within this region, and we are pleased that the Federal Transit Administration has been an active partner.    This work of improving safety and reliability is being tackled on many fronts. On the safety oversight front, FTA is providing the lead, working with the States. On the management front, we are very pleased that Paul Wiedefeld, in his short tenure, has taken bold actions to address these challenges and begin restoring the trust and pride of Metro riders. There is more work to be done, and our region has come together to work on it.    One additional and important resource that is needed to address the safety and reliability challenges, but is beyond Mr. Wiedefeld's power alone to fix, is the need for funding reform. I believe Metro is the only major rail transit system in the country that does not have a dedicated source of funding for its operations and state-of-good-repair needs. I believe that lack of dedicated funding has contributed to Metro's maintenance shortfalls. That is why regional leaders are coordinating through the Council of Governments and the Greater Washington Board of Trade to explore how we can work together at the State and local levels to provide long-term, predictable, sustainable, dedicated funding support to meet Metro's needs. And we look forward to continued and hopefully increased financial support from the Federal Government, as well.    I am confident that this region and the Federal Government can continue our partnership and rise up to address Metro's challenges. Working together, we can make Metro a regional and national asset for decades to come.    Thank you.    Mr. Graves of Missouri. Thank you very much. We will now move in to questions. And my first question is for Mr. Wiedefeld.    NTSB investigations of different WMATA incidences from 1982 all the way up to last year have unfortunately had very similar findings. It has come down to improper training of WMATA employees and inadequate emergency response by the operations control staff, which was pointed out by Ms. Flowers.    Why didn't Metro--and there are two questions here--why didn't Metro provide better training and staffing for emergency preparedness? And the second question is what have you changed at the rail operations control center to make sure that--you know, that this doesn't repeat itself?</t>
   </si>
   <si>
@@ -166,6 +208,12 @@
     <t>400273</t>
   </si>
   <si>
+    <t>Mica</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you. And I can tell where to look for some of those dollars. In MAP-21, we passed legislation that was supposed to consolidate or eliminate 50 to 60 programs. When we questioned in the Committee on Oversight and Government Reform, how many people had left, there was nobody. So there are plenty of people and plenty of resources. I suggest you might tell the Secretary to find some of them to go into the important oversight responsibility for the transit systems, Ms. Flowers. Ms. Flowers, now you're--the--with some fanfare, the Secretary's announced a--what's the name of the position that's going to be created?</t>
   </si>
   <si>
@@ -259,6 +307,12 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. And also, the concern is the people in America moving back into the cities. So if we don't have a system that is safe, I think we're headed for trouble. And I know we have a responsibility. We have a responsibility to make sure that there's enough funding there for the infrastructure, enough funding for the safety part of it, and quite frankly, I just want America to know that, you know, Washington, you can still come and you still use the system. And we're going to fix it.</t>
   </si>
   <si>
@@ -274,6 +328,12 @@
     <t>412410</t>
   </si>
   <si>
+    <t>Webster</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Madam Chair. I ride the Metro every day, for 5\\1/2\\ years, since I've been in Congress. I go from Pentagon City to L'Enfant to Capitol South. And I, you know, I think there's two things here. And we're talking about more money, maybe saving, hiring people, firing people, doing all that. But all I know is that every day I ride, there's an escalator broken. So I started watching three escalators. There's a bunch of them that I ride on, but this is three.    And I would say that over the past few years, that these three that I've watched have been rebuilt four times. I mean, I'm talking about all new everything. All the treads. All the bearings and all of that. And it just seems to me like there'd be a more efficient way to do that. If we save money then we certainly can do more maintenance in the right place. I would tell you you ought to look, and I don't know if there's any reports or anything about that.    But all I can tell you is, I know, because I've seen it. On the other end, there's one escalator that was, is privately done. And in the 5\\1/2\\ years I've been riding that one, on that same system where you get dropped off, and then this one is done by the people that own the building. It's been broken once in 5\\1/2\\ years.    So I think there's probably--I don't know what you do as far as efficiency and as far as rechecking the people that do your maintenance and so forth. But if the other maintenance--I've never been in a, in a wreck or anything like that, so I don't know anything about the cars. I see them. You know, they may be, you may have extra ones. You may change them out all the time. I don't know that. What I do know is, the escalators are fixed. They're there, and you got to have them repaired time and time again.    And it just seems to me like, and I don't know if it's done by an independent contractor or by your employees or whether it's the, maybe it's the vendor that provides the actual treads and so forth on the escalator. But I would tell you I believe there's lots of savings to be found there, either by getting a different vendor or different employees or different, a different person that actually performs the work, if it's an independent contractor. So that's my two cents. That's only from my experience on it.    I don't live here. I have one real system in my district. It's owned by Disney World. And I've never seen it broken in the 30-some years they've been there. And we have a lot of people that ride that too. We have 66 million people that come by my district every, every year. And they go one place, Walt Disney World. And also Sea World, Universal Studios. But the one rail system there seems to be much more maintained. So I would suggest maybe just talking to those who own or operate rail systems. Maybe there's some savings there too. With that, Madam Chair, I yield back.</t>
   </si>
   <si>
@@ -283,6 +343,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you. And thank you to the witnesses. I know sometimes you probably sit in here thinking that Congress may do a better job at criticizing than fixing. Thank you for your patience and your courtesy. Also, I live near a subway and I rode the Metro. I used to love to ride the Metro. But they've, obviously these stories in the newspapers and on TV have been scary to me. So my first question is, could you quantify, has it been a decline in the ridership, and does that affect your budget? And the other question I have is also, with these very highly publicized criminal incidences, there was a young man that was stabbed multiple times. There was a woman that was recently sexually assaulted. And I don't mean to insinuate that that was the fault of Metro. What my question would be, is there anything that you can do to make it safer, or are you doing to make it safer, for the riders?</t>
   </si>
   <si>
@@ -328,6 +394,12 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Madam Chairman. Let me come back, Mr. Wiedefeld, too, to you. Obviously we've had our dealings before. And I guess my concern is today, we've heard a lot of talk about funding. And the focus is all about funding. And yet I understand that perhaps this is not a funding issue as much as it is a management issue and truly a maintenance issue. Is that correct?</t>
   </si>
   <si>
@@ -424,6 +496,9 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you. And I'm going to--before I get into the meat of things, there's a couple of things I want to make sure I get out there. And first of all I'll say that I started a few years ago in here the first Congressional Public Transportation Caucus because of how important it is that we support public transit across the country. Not just my hometown of Chicago but I'm also a Metro rider, when I'm out here. So first thing I wanted to mention, I'm going to have a question for the record about WMATA's recent cancellation of the new electronic payment program, which I know is designed to make the customer experience better.    And too, reportedly it would have saved WMATA $60 million a year. I know there's much invested in this. And we certainly have a few challenges with the current fare collection system. So I just, I'm going to be asking a question for the record on that and what has happened with that. I want to move on. I just wanted to ask a quick question to Ms. Flowers. A recent assault on a DC Metro bus driver became deadly when the bus was hijacked and horrifically killed a pedestrian. And driver assaults are a national issue. The FAST Act asked FTA to issue a Notice of Proposed Rulemaking on driver assaults, which is a growing issue. Is--when will FTA issue its rulemaking?</t>
   </si>
   <si>
@@ -524,6 +599,12 @@
   </si>
   <si>
     <t>412524</t>
+  </si>
+  <si>
+    <t>Esty</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Esty. Thank you very much. And I want to thank you all for joining us here today. And as somebody who as a high school student was in those Metros when they were being built, with my father, who as part of construction teams building them, I have particular interest in the legacy around how we maintain these systems. So a couple of different questions. First, Mr. Wiedefeld, on the safety culture, who are you looking at? What organizations or what institutions do you think we should be looking at to inculcate the kind of safety culture that needs to be instinct?</t>
@@ -977,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,7 +1066,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,4493 +1088,5283 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s">
+        <v>64</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s">
+        <v>64</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G53" t="s">
+        <v>64</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G55" t="s">
+        <v>64</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G57" t="s">
+        <v>64</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G63" t="s">
+        <v>64</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>97</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G70" t="s">
+        <v>104</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G72" t="s">
+        <v>109</v>
+      </c>
       <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G74" t="s">
+        <v>109</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G76" t="s">
+        <v>109</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G78" t="s">
+        <v>109</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G80" t="s">
+        <v>109</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G82" t="s">
+        <v>109</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G84" t="s">
+        <v>109</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G86" t="s">
+        <v>126</v>
+      </c>
       <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
+      </c>
       <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G90" t="s">
+        <v>126</v>
+      </c>
       <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G91" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G92" t="s">
+        <v>126</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G100" t="s">
+        <v>126</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>103</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G102" t="s">
+        <v>126</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>103</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>103</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G106" t="s">
+        <v>126</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>103</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G108" t="s">
+        <v>126</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>103</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G110" t="s">
+        <v>126</v>
+      </c>
       <c r="H110" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G111" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G112" t="s">
+        <v>126</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>103</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G114" t="s">
+        <v>126</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>103</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G116" t="s">
+        <v>126</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G118" t="s">
+        <v>160</v>
+      </c>
       <c r="H118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G119" t="s">
+        <v>160</v>
+      </c>
       <c r="H119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G121" t="s">
+        <v>160</v>
+      </c>
       <c r="H121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G122" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G123" t="s">
+        <v>160</v>
+      </c>
       <c r="H123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G125" t="s">
+        <v>160</v>
+      </c>
       <c r="H125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>37</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G127" t="s">
+        <v>160</v>
+      </c>
       <c r="H127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G128" t="s">
+        <v>37</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G129" t="s">
+        <v>160</v>
+      </c>
       <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G131" t="s">
+        <v>37</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G133" t="s">
+        <v>37</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G135" t="s">
+        <v>37</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G137" t="s">
+        <v>37</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s">
+        <v>37</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>37</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G145" t="s">
+        <v>37</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G147" t="s">
+        <v>37</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G149" t="s">
+        <v>37</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>169</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G153" t="s">
+        <v>195</v>
+      </c>
       <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G154" t="s">
+        <v>37</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>169</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G155" t="s">
+        <v>195</v>
+      </c>
       <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G156" t="s">
+        <v>37</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>169</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G157" t="s">
+        <v>195</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I157" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>169</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G158" t="s">
+        <v>195</v>
+      </c>
       <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G159" t="s">
+        <v>37</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>169</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G160" t="s">
+        <v>195</v>
+      </c>
       <c r="H160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
       <c r="H162" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G163" t="s">
+        <v>37</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
       <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I164" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G165" t="s">
+        <v>37</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
       <c r="H166" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G168" t="s">
+        <v>37</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G170" t="s">
+        <v>37</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G172" t="s">
+        <v>37</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G174" t="s">
+        <v>37</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G176" t="s">
+        <v>37</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G178" t="s">
+        <v>37</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G181" t="s">
+        <v>37</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G183" t="s">
+        <v>37</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G185" t="s">
+        <v>37</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G187" t="s">
+        <v>37</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>204</v>
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20217.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412658</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Comstock</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400295</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Norton</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t>409888</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Shuster</t>
@@ -1058,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,7 +1078,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,5280 +1103,5696 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G70" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G78" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G80" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G84" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G86" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G88" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G90" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G92" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>37</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I94" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>37</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I96" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I98" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G100" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G102" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" t="s">
-        <v>37</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G104" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I104" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" t="s">
-        <v>37</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G106" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" t="s">
-        <v>37</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G108" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I108" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>41</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G110" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" t="s">
-        <v>37</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G112" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I112" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>41</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G114" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I114" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" t="s">
-        <v>37</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>41</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G116" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G118" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="I118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G119" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
-      </c>
-      <c r="G120" t="s">
-        <v>37</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G121" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="I121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" t="s">
-        <v>37</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G123" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="I123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
-      </c>
-      <c r="G124" t="s">
-        <v>37</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G125" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="I125" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" t="s">
-        <v>37</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>41</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G127" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="I127" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J127" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" t="s">
-        <v>37</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G129" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="I129" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" t="s">
-        <v>37</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>41</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
-      </c>
-      <c r="G133" t="s">
-        <v>37</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>41</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" t="s">
-        <v>37</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>41</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
-      </c>
-      <c r="G137" t="s">
-        <v>37</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>41</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" t="s">
-        <v>37</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>41</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
-      </c>
-      <c r="G141" t="s">
-        <v>37</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>41</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" t="s">
-        <v>37</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>41</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
-      </c>
-      <c r="G145" t="s">
-        <v>37</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>41</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
-      </c>
-      <c r="G147" t="s">
-        <v>37</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>41</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
-      </c>
-      <c r="G149" t="s">
-        <v>37</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>41</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
-      </c>
-      <c r="G151" t="s">
-        <v>37</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>41</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G153" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I153" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="J153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G154" t="s">
-        <v>37</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>41</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G155" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I155" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="J155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
-      </c>
-      <c r="G156" t="s">
-        <v>37</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G157" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I157" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G158" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I158" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
-      </c>
-      <c r="G159" t="s">
-        <v>37</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>41</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G160" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I160" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I162" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
-      </c>
-      <c r="G163" t="s">
-        <v>37</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>41</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I164" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J164" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
-      </c>
-      <c r="G165" t="s">
-        <v>37</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
-      </c>
-      <c r="G168" t="s">
-        <v>37</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>41</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
-      </c>
-      <c r="G170" t="s">
-        <v>37</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>41</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
-      </c>
-      <c r="G172" t="s">
-        <v>37</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>41</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174" t="s">
-        <v>37</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>41</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I175" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
-      </c>
-      <c r="G176" t="s">
-        <v>37</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>41</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178" t="s">
-        <v>37</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>41</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
-      </c>
-      <c r="G181" t="s">
-        <v>37</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>41</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
-      </c>
-      <c r="G183" t="s">
-        <v>37</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>41</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
-      </c>
-      <c r="G185" t="s">
-        <v>37</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>41</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I186" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
-      </c>
-      <c r="G187" t="s">
-        <v>37</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>41</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>231</v>
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
